--- a/dictionaries/reference_bonds/reference_bonds.xlsx
+++ b/dictionaries/reference_bonds/reference_bonds.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python Projets\Report\dictionaries\reference_bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9701EA45-09C4-42F6-8499-24196EF74D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bonds" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Название инструмента</t>
-  </si>
-  <si>
-    <t>Код инструмента</t>
   </si>
   <si>
     <t>ISIN</t>
@@ -141,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,9 +255,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,227 +500,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
